--- a/word-record.xlsx
+++ b/word-record.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\english-record\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE80D036-5166-41A9-A0FC-225DBC9C6391}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
   <si>
     <t>diagnose</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -813,13 +819,1045 @@
   </si>
   <si>
     <t>令人愉快的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅仅、几乎不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假定、设想、承担</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主席、椅子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意、关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>murder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谋杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semiconductor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半导体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐、推动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispalce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代替、免职、迫使。。。离开家园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最适的、最佳的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并、融入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torrent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急流、一连串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterproof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防水的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发言人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spokesman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理学家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youngster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年轻人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undertake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承担</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>articulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口齿清楚、以关节连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stumble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绊倒，失误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imperial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝国的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verbal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口头的、动词的、语言的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣扬、布道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consultant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biscuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reckless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁莽的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conquer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征服、克服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puzzle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷惑、难题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moreover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而且、此外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conclusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jewelry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naughty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顽皮的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>towel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cotton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棉花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灾难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁、钢铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>champion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>license</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lately</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职、停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>truth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁徙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hardship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endeavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thrive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outlook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前景、人生观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夸脱（容量单位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trifle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩弄、少量、琐事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诡诈的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riddle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谜语、打洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inquiry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询问、调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expedition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 远征、探险、迅速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运河、沟渠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ribbon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frequency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频繁的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quarrel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>争吵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thirsty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马厩、牢固的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电线、金属丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废墟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monotonous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单调乏味的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昂贵的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>landlady</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女房东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mingle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使混合、交际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>react</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>horse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gallery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画廊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hollow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空洞的、中空的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>childhood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>童年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freedom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>善良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>善良的、种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>again</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kindness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>避免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥抱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoulder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肩膀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>danger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>need</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>称量、权衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ideal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店、存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>know</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hopeful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有希望的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳朵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coffee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>today</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>three</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>housework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noodle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>northwest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yesterday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>once</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一旦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1149,23 +2187,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:C228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D224" sqref="D224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1961,8 +2999,1040 @@
         <v>197</v>
       </c>
     </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>204</v>
+      </c>
+      <c r="C103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>208</v>
+      </c>
+      <c r="C105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>210</v>
+      </c>
+      <c r="C106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>212</v>
+      </c>
+      <c r="C107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>214</v>
+      </c>
+      <c r="C108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>216</v>
+      </c>
+      <c r="C109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>218</v>
+      </c>
+      <c r="C110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>220</v>
+      </c>
+      <c r="C111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+      <c r="C112" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>226</v>
+      </c>
+      <c r="C114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>228</v>
+      </c>
+      <c r="C115" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>232</v>
+      </c>
+      <c r="C117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>236</v>
+      </c>
+      <c r="C119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>238</v>
+      </c>
+      <c r="C120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>240</v>
+      </c>
+      <c r="C121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>242</v>
+      </c>
+      <c r="C122" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>244</v>
+      </c>
+      <c r="C123" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>246</v>
+      </c>
+      <c r="C124" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>248</v>
+      </c>
+      <c r="C125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>250</v>
+      </c>
+      <c r="C126" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>252</v>
+      </c>
+      <c r="C127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>254</v>
+      </c>
+      <c r="C128" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>256</v>
+      </c>
+      <c r="C129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>258</v>
+      </c>
+      <c r="C130" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>260</v>
+      </c>
+      <c r="C131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>262</v>
+      </c>
+      <c r="C132" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>264</v>
+      </c>
+      <c r="C133" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>266</v>
+      </c>
+      <c r="C134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>268</v>
+      </c>
+      <c r="C135" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>270</v>
+      </c>
+      <c r="C136" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>272</v>
+      </c>
+      <c r="C137" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>274</v>
+      </c>
+      <c r="C138" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>276</v>
+      </c>
+      <c r="C139" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>278</v>
+      </c>
+      <c r="C140" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>280</v>
+      </c>
+      <c r="C141" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>282</v>
+      </c>
+      <c r="C142" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>284</v>
+      </c>
+      <c r="C143" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>286</v>
+      </c>
+      <c r="C144" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>288</v>
+      </c>
+      <c r="C145" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>290</v>
+      </c>
+      <c r="C146" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>292</v>
+      </c>
+      <c r="C147" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>294</v>
+      </c>
+      <c r="C148" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>296</v>
+      </c>
+      <c r="C149" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>298</v>
+      </c>
+      <c r="C150" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>300</v>
+      </c>
+      <c r="C151" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>302</v>
+      </c>
+      <c r="C152" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>304</v>
+      </c>
+      <c r="C153" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
+        <v>306</v>
+      </c>
+      <c r="C154" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
+        <v>308</v>
+      </c>
+      <c r="C155" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>310</v>
+      </c>
+      <c r="C156" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>312</v>
+      </c>
+      <c r="C157" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>314</v>
+      </c>
+      <c r="C158" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>316</v>
+      </c>
+      <c r="C159" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
+        <v>318</v>
+      </c>
+      <c r="C160" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>320</v>
+      </c>
+      <c r="C161" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>322</v>
+      </c>
+      <c r="C162" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>324</v>
+      </c>
+      <c r="C163" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>326</v>
+      </c>
+      <c r="C164" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
+        <v>328</v>
+      </c>
+      <c r="C165" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B166" t="s">
+        <v>330</v>
+      </c>
+      <c r="C166" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
+        <v>332</v>
+      </c>
+      <c r="C167" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
+        <v>334</v>
+      </c>
+      <c r="C168" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
+        <v>336</v>
+      </c>
+      <c r="C169" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>338</v>
+      </c>
+      <c r="C170" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
+        <v>340</v>
+      </c>
+      <c r="C171" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>342</v>
+      </c>
+      <c r="C172" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
+        <v>344</v>
+      </c>
+      <c r="C173" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
+        <v>346</v>
+      </c>
+      <c r="C174" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
+        <v>348</v>
+      </c>
+      <c r="C175" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
+        <v>350</v>
+      </c>
+      <c r="C176" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>352</v>
+      </c>
+      <c r="C177" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>354</v>
+      </c>
+      <c r="C178" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
+        <v>356</v>
+      </c>
+      <c r="C179" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>358</v>
+      </c>
+      <c r="C180" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>360</v>
+      </c>
+      <c r="C181" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
+        <v>362</v>
+      </c>
+      <c r="C182" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>364</v>
+      </c>
+      <c r="C183" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>366</v>
+      </c>
+      <c r="C184" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
+        <v>368</v>
+      </c>
+      <c r="C185" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>370</v>
+      </c>
+      <c r="C186" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
+        <v>372</v>
+      </c>
+      <c r="C187" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
+        <v>374</v>
+      </c>
+      <c r="C188" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
+        <v>376</v>
+      </c>
+      <c r="C189" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B190" t="s">
+        <v>379</v>
+      </c>
+      <c r="C190" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B191" t="s">
+        <v>381</v>
+      </c>
+      <c r="C191" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
+        <v>383</v>
+      </c>
+      <c r="C192" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
+        <v>385</v>
+      </c>
+      <c r="C193" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
+        <v>387</v>
+      </c>
+      <c r="C194" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B195" t="s">
+        <v>388</v>
+      </c>
+      <c r="C195" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
+        <v>390</v>
+      </c>
+      <c r="C196" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B197" t="s">
+        <v>392</v>
+      </c>
+      <c r="C197" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
+        <v>394</v>
+      </c>
+      <c r="C198" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
+        <v>396</v>
+      </c>
+      <c r="C199" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
+        <v>398</v>
+      </c>
+      <c r="C200" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B201" t="s">
+        <v>400</v>
+      </c>
+      <c r="C201" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B202" t="s">
+        <v>402</v>
+      </c>
+      <c r="C202" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B203" t="s">
+        <v>404</v>
+      </c>
+      <c r="C203" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B204" t="s">
+        <v>406</v>
+      </c>
+      <c r="C204" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
+        <v>408</v>
+      </c>
+      <c r="C205" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
+        <v>410</v>
+      </c>
+      <c r="C206" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
+        <v>412</v>
+      </c>
+      <c r="C207" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
+        <v>414</v>
+      </c>
+      <c r="C208" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B209" t="s">
+        <v>416</v>
+      </c>
+      <c r="C209" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
+        <v>418</v>
+      </c>
+      <c r="C210" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B211" t="s">
+        <v>420</v>
+      </c>
+      <c r="C211" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B212" t="s">
+        <v>422</v>
+      </c>
+      <c r="C212" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B213" t="s">
+        <v>424</v>
+      </c>
+      <c r="C213" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B214" t="s">
+        <v>426</v>
+      </c>
+      <c r="C214" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B215" t="s">
+        <v>428</v>
+      </c>
+      <c r="C215" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B216" t="s">
+        <v>430</v>
+      </c>
+      <c r="C216" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B217" t="s">
+        <v>432</v>
+      </c>
+      <c r="C217" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B218" t="s">
+        <v>434</v>
+      </c>
+      <c r="C218" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B219" t="s">
+        <v>436</v>
+      </c>
+      <c r="C219" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B220" t="s">
+        <v>438</v>
+      </c>
+      <c r="C220" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B221" t="s">
+        <v>440</v>
+      </c>
+      <c r="C221" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B222" t="s">
+        <v>442</v>
+      </c>
+      <c r="C222" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B223" t="s">
+        <v>444</v>
+      </c>
+      <c r="C223" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B224" t="s">
+        <v>446</v>
+      </c>
+      <c r="C224" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
+        <v>448</v>
+      </c>
+      <c r="C225" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B226" t="s">
+        <v>450</v>
+      </c>
+      <c r="C226" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B227" t="s">
+        <v>452</v>
+      </c>
+      <c r="C227" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
+        <v>454</v>
+      </c>
+      <c r="C228" t="s">
+        <v>455</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B1:C34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C34">
     <sortCondition ref="B1:B34"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1972,7 +4042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1987,7 +4057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2002,7 +4072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/word-record.xlsx
+++ b/word-record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\english-record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE80D036-5166-41A9-A0FC-225DBC9C6391}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B925E35-3B78-477B-A012-AA22F4B09617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6660" yWindow="1020" windowWidth="16275" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="446">
   <si>
     <t>diagnose</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,10 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reciproal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>互惠的、相互的、倒数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -614,14 +610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>obtain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>grain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -878,10 +866,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dispalce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>代替、免职、迫使。。。离开家园</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1086,14 +1070,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bitter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cotton</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1342,14 +1318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>flu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>illusion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1382,14 +1350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1398,14 +1358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ruin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>废墟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1851,6 +1803,14 @@
   </si>
   <si>
     <t>原件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reciprocal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2195,10 +2155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C228"/>
+  <dimension ref="B1:C223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D224" sqref="D224"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2209,1831 +2169,1791 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>62</v>
+        <v>376</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>64</v>
+        <v>371</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>67</v>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>36</v>
+        <v>392</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>26</v>
+        <v>358</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>46</v>
+        <v>314</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>70</v>
+        <v>352</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>72</v>
+        <v>390</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>82</v>
+        <v>382</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>84</v>
+        <v>242</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>92</v>
+        <v>336</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>94</v>
+        <v>260</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>100</v>
+        <v>386</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>110</v>
+        <v>288</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>120</v>
+        <v>444</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>122</v>
+        <v>332</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>124</v>
+        <v>416</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>126</v>
+        <v>420</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>130</v>
+        <v>346</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>132</v>
+        <v>394</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>395</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>142</v>
+        <v>290</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>144</v>
+        <v>412</v>
       </c>
       <c r="C73" t="s">
-        <v>145</v>
+        <v>413</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="C75" t="s">
-        <v>149</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>154</v>
+        <v>312</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>156</v>
+        <v>414</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
+        <v>415</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="C80" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>160</v>
+        <v>354</v>
       </c>
       <c r="C81" t="s">
-        <v>161</v>
+        <v>355</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="C82" t="s">
-        <v>163</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>164</v>
+        <v>348</v>
       </c>
       <c r="C83" t="s">
-        <v>165</v>
+        <v>349</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C84" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>170</v>
+        <v>286</v>
       </c>
       <c r="C86" t="s">
-        <v>171</v>
+        <v>287</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>172</v>
+        <v>436</v>
       </c>
       <c r="C87" t="s">
-        <v>173</v>
+        <v>437</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>174</v>
+        <v>350</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>351</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>176</v>
+        <v>410</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
+        <v>411</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="C90" t="s">
-        <v>179</v>
+        <v>345</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>182</v>
+        <v>428</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
+        <v>429</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>184</v>
+        <v>378</v>
       </c>
       <c r="C93" t="s">
-        <v>185</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>186</v>
+        <v>402</v>
       </c>
       <c r="C94" t="s">
-        <v>187</v>
+        <v>403</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="C95" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>190</v>
+        <v>322</v>
       </c>
       <c r="C96" t="s">
-        <v>191</v>
+        <v>323</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="C97" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c r="C98" t="s">
-        <v>195</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>197</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="C100" t="s">
-        <v>199</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C101" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>202</v>
+        <v>306</v>
       </c>
       <c r="C102" t="s">
-        <v>203</v>
+        <v>307</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C103" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="C104" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="C105" t="s">
-        <v>209</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="C106" t="s">
-        <v>211</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>212</v>
+        <v>364</v>
       </c>
       <c r="C107" t="s">
-        <v>213</v>
+        <v>366</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>214</v>
+        <v>375</v>
       </c>
       <c r="C108" t="s">
-        <v>215</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>216</v>
+        <v>408</v>
       </c>
       <c r="C109" t="s">
-        <v>217</v>
+        <v>409</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>218</v>
+        <v>338</v>
       </c>
       <c r="C110" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="C111" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="C112" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>225</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>226</v>
+        <v>111</v>
       </c>
       <c r="C114" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>228</v>
+        <v>302</v>
       </c>
       <c r="C115" t="s">
-        <v>229</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="C116" t="s">
-        <v>231</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="C117" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>234</v>
+        <v>340</v>
       </c>
       <c r="C118" t="s">
-        <v>235</v>
+        <v>341</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="C119" t="s">
-        <v>237</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="C120" t="s">
-        <v>239</v>
+        <v>335</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C121" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="C122" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="C123" t="s">
-        <v>245</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C124" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>248</v>
+        <v>398</v>
       </c>
       <c r="C125" t="s">
-        <v>249</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="C126" t="s">
-        <v>251</v>
+        <v>431</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>252</v>
+        <v>432</v>
       </c>
       <c r="C127" t="s">
-        <v>253</v>
+        <v>433</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="C128" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="C129" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="C130" t="s">
-        <v>259</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>260</v>
+        <v>440</v>
       </c>
       <c r="C131" t="s">
-        <v>261</v>
+        <v>441</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="C132" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>264</v>
+        <v>442</v>
       </c>
       <c r="C133" t="s">
-        <v>265</v>
+        <v>443</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c r="C134" t="s">
-        <v>267</v>
+        <v>190</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="C135" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>271</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>273</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="C138" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>276</v>
+        <v>396</v>
       </c>
       <c r="C139" t="s">
-        <v>277</v>
+        <v>397</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>278</v>
+        <v>380</v>
       </c>
       <c r="C140" t="s">
-        <v>279</v>
+        <v>381</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="C141" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c r="C142" t="s">
-        <v>283</v>
+        <v>194</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>284</v>
+        <v>360</v>
       </c>
       <c r="C143" t="s">
-        <v>285</v>
+        <v>361</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>286</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>287</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>288</v>
+        <v>388</v>
       </c>
       <c r="C145" t="s">
-        <v>289</v>
+        <v>389</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>290</v>
+        <v>48</v>
       </c>
       <c r="C146" t="s">
-        <v>291</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="C147" t="s">
-        <v>293</v>
+        <v>235</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="C148" t="s">
-        <v>295</v>
+        <v>114</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>296</v>
+        <v>207</v>
       </c>
       <c r="C149" t="s">
-        <v>297</v>
+        <v>208</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="C150" t="s">
-        <v>299</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="C151" t="s">
-        <v>301</v>
+        <v>245</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="C152" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C153" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="C154" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="C155" t="s">
-        <v>309</v>
+        <v>21</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="C156" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="C157" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>314</v>
+        <v>26</v>
       </c>
       <c r="C158" t="s">
-        <v>315</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>316</v>
+        <v>445</v>
       </c>
       <c r="C159" t="s">
-        <v>317</v>
+        <v>78</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>318</v>
+        <v>240</v>
       </c>
       <c r="C160" t="s">
-        <v>319</v>
+        <v>241</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>320</v>
+        <v>60</v>
       </c>
       <c r="C161" t="s">
-        <v>321</v>
+        <v>61</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>322</v>
+        <v>101</v>
       </c>
       <c r="C162" t="s">
-        <v>323</v>
+        <v>102</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="C163" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>326</v>
+        <v>93</v>
       </c>
       <c r="C164" t="s">
-        <v>327</v>
+        <v>94</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="C165" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C166" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="C167" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>334</v>
+        <v>34</v>
       </c>
       <c r="C168" t="s">
-        <v>335</v>
+        <v>35</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="C169" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>338</v>
+        <v>56</v>
       </c>
       <c r="C170" t="s">
-        <v>339</v>
+        <v>57</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>340</v>
+        <v>422</v>
       </c>
       <c r="C171" t="s">
-        <v>341</v>
+        <v>423</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>342</v>
+        <v>169</v>
       </c>
       <c r="C172" t="s">
-        <v>343</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
       <c r="C173" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>346</v>
+        <v>205</v>
       </c>
       <c r="C174" t="s">
-        <v>347</v>
+        <v>206</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>348</v>
+        <v>434</v>
       </c>
       <c r="C175" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>350</v>
+        <v>149</v>
       </c>
       <c r="C176" t="s">
-        <v>351</v>
+        <v>150</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="C177" t="s">
-        <v>353</v>
+        <v>385</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>354</v>
+        <v>173</v>
       </c>
       <c r="C178" t="s">
-        <v>355</v>
+        <v>174</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C179" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>358</v>
+        <v>54</v>
       </c>
       <c r="C180" t="s">
-        <v>359</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>360</v>
+        <v>153</v>
       </c>
       <c r="C181" t="s">
-        <v>361</v>
+        <v>154</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>362</v>
+        <v>83</v>
       </c>
       <c r="C182" t="s">
-        <v>363</v>
+        <v>84</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>364</v>
+        <v>300</v>
       </c>
       <c r="C183" t="s">
-        <v>365</v>
+        <v>301</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>366</v>
+        <v>50</v>
       </c>
       <c r="C184" t="s">
-        <v>367</v>
+        <v>51</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>369</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>370</v>
+        <v>219</v>
       </c>
       <c r="C186" t="s">
-        <v>371</v>
+        <v>218</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>372</v>
+        <v>24</v>
       </c>
       <c r="C187" t="s">
-        <v>373</v>
+        <v>25</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>374</v>
+        <v>105</v>
       </c>
       <c r="C188" t="s">
-        <v>375</v>
+        <v>106</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="C189" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="C190" t="s">
-        <v>380</v>
+        <v>267</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>381</v>
+        <v>191</v>
       </c>
       <c r="C191" t="s">
-        <v>382</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>383</v>
+        <v>246</v>
       </c>
       <c r="C192" t="s">
-        <v>384</v>
+        <v>247</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="C193" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>387</v>
+        <v>282</v>
       </c>
       <c r="C194" t="s">
-        <v>377</v>
+        <v>283</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>388</v>
+        <v>228</v>
       </c>
       <c r="C195" t="s">
-        <v>389</v>
+        <v>229</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>390</v>
+        <v>46</v>
       </c>
       <c r="C196" t="s">
-        <v>391</v>
+        <v>47</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>392</v>
+        <v>32</v>
       </c>
       <c r="C197" t="s">
-        <v>393</v>
+        <v>33</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>394</v>
+        <v>52</v>
       </c>
       <c r="C198" t="s">
-        <v>395</v>
+        <v>53</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>396</v>
+        <v>42</v>
       </c>
       <c r="C199" t="s">
-        <v>397</v>
+        <v>43</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>398</v>
+        <v>177</v>
       </c>
       <c r="C200" t="s">
-        <v>399</v>
+        <v>178</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>400</v>
+        <v>264</v>
       </c>
       <c r="C201" t="s">
-        <v>401</v>
+        <v>265</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>402</v>
+        <v>326</v>
       </c>
       <c r="C202" t="s">
-        <v>403</v>
+        <v>327</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="C203" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>406</v>
+        <v>292</v>
       </c>
       <c r="C204" t="s">
-        <v>407</v>
+        <v>293</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>408</v>
+        <v>107</v>
       </c>
       <c r="C205" t="s">
-        <v>409</v>
+        <v>108</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C206" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>412</v>
+        <v>214</v>
       </c>
       <c r="C207" t="s">
-        <v>413</v>
+        <v>215</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>414</v>
+        <v>258</v>
       </c>
       <c r="C208" t="s">
-        <v>415</v>
+        <v>259</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>416</v>
+        <v>185</v>
       </c>
       <c r="C209" t="s">
-        <v>417</v>
+        <v>186</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>418</v>
+        <v>298</v>
       </c>
       <c r="C210" t="s">
-        <v>419</v>
+        <v>299</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>420</v>
+        <v>278</v>
       </c>
       <c r="C211" t="s">
-        <v>421</v>
+        <v>279</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>422</v>
+        <v>137</v>
       </c>
       <c r="C212" t="s">
-        <v>423</v>
+        <v>138</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>424</v>
+        <v>224</v>
       </c>
       <c r="C213" t="s">
-        <v>425</v>
+        <v>225</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>426</v>
+        <v>356</v>
       </c>
       <c r="C214" t="s">
-        <v>427</v>
+        <v>357</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>428</v>
+        <v>232</v>
       </c>
       <c r="C215" t="s">
-        <v>429</v>
+        <v>233</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>430</v>
+        <v>141</v>
       </c>
       <c r="C216" t="s">
-        <v>431</v>
+        <v>142</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>432</v>
+        <v>216</v>
       </c>
       <c r="C217" t="s">
-        <v>433</v>
+        <v>217</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="C218" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>436</v>
+        <v>99</v>
       </c>
       <c r="C219" t="s">
-        <v>437</v>
+        <v>100</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>438</v>
+        <v>330</v>
       </c>
       <c r="C220" t="s">
-        <v>439</v>
+        <v>331</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>440</v>
+        <v>183</v>
       </c>
       <c r="C221" t="s">
-        <v>441</v>
+        <v>184</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C222" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="C223" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B224" t="s">
-        <v>446</v>
-      </c>
-      <c r="C224" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B225" t="s">
-        <v>448</v>
-      </c>
-      <c r="C225" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B226" t="s">
-        <v>450</v>
-      </c>
-      <c r="C226" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B227" t="s">
-        <v>452</v>
-      </c>
-      <c r="C227" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B228" t="s">
-        <v>454</v>
-      </c>
-      <c r="C228" t="s">
-        <v>455</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C34">
-    <sortCondition ref="B1:B34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C223">
+    <sortCondition ref="B1:B223"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/word-record.xlsx
+++ b/word-record.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\english-record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B925E35-3B78-477B-A012-AA22F4B09617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4305FED-8DD3-4014-823A-2F0ECBD516A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="1020" windowWidth="16275" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8685" yWindow="2685" windowWidth="16275" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
-    <sheet name="B" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="475">
   <si>
     <t>diagnose</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1811,6 +1810,122 @@
   </si>
   <si>
     <t>reciprocal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.2.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前提、假定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intervene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干涉、介入、打岔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portfolio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件夹、公事包、部长职位、投资组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatigue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲乏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现实的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞职、顺从</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scholarship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖学金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chairperson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主席、董事长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在火车上、在船上、上车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2155,15 +2270,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C223"/>
+  <dimension ref="A1:C237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="I232" sqref="I232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3831,7 +3946,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>185</v>
       </c>
@@ -3839,7 +3954,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>298</v>
       </c>
@@ -3847,7 +3962,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>278</v>
       </c>
@@ -3855,7 +3970,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>137</v>
       </c>
@@ -3863,7 +3978,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
         <v>224</v>
       </c>
@@ -3871,7 +3986,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
         <v>356</v>
       </c>
@@ -3879,7 +3994,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
         <v>232</v>
       </c>
@@ -3887,7 +4002,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
         <v>141</v>
       </c>
@@ -3895,7 +4010,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
         <v>216</v>
       </c>
@@ -3903,7 +4018,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
         <v>400</v>
       </c>
@@ -3911,7 +4026,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
         <v>99</v>
       </c>
@@ -3919,7 +4034,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
         <v>330</v>
       </c>
@@ -3927,7 +4042,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
         <v>183</v>
       </c>
@@ -3935,7 +4050,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
         <v>438</v>
       </c>
@@ -3943,12 +4058,127 @@
         <v>439</v>
       </c>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
         <v>222</v>
       </c>
       <c r="C223" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>446</v>
+      </c>
+      <c r="B224" t="s">
+        <v>447</v>
+      </c>
+      <c r="C224" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
+        <v>449</v>
+      </c>
+      <c r="C225" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B226" t="s">
+        <v>451</v>
+      </c>
+      <c r="C226" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B227" t="s">
+        <v>453</v>
+      </c>
+      <c r="C227" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
+        <v>455</v>
+      </c>
+      <c r="C228" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
+        <v>457</v>
+      </c>
+      <c r="C229" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B230" t="s">
+        <v>459</v>
+      </c>
+      <c r="C230" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B231" t="s">
+        <v>461</v>
+      </c>
+      <c r="C231" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B232" t="s">
+        <v>463</v>
+      </c>
+      <c r="C232" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B233" t="s">
+        <v>465</v>
+      </c>
+      <c r="C233" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B234" t="s">
+        <v>467</v>
+      </c>
+      <c r="C234" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B235" t="s">
+        <v>469</v>
+      </c>
+      <c r="C235" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B236" t="s">
+        <v>471</v>
+      </c>
+      <c r="C236" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B237" t="s">
+        <v>473</v>
+      </c>
+      <c r="C237" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -3962,21 +4192,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3991,7 +4206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
